--- a/image/goal.xlsx
+++ b/image/goal.xlsx
@@ -966,44 +966,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="149.10546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.8671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="147.953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.46875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.640625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="95.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.7265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="96.05859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/goal.xlsx
+++ b/image/goal.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="259">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -598,10 +598,6 @@
   </si>
   <si>
     <t>Goal.target.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -966,44 +962,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="106.94140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="147.953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.46875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="149.10546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.8671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.7265625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="96.05859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="95.3046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3209,13 +3205,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3266,7 +3262,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3284,7 +3280,7 @@
         <v>39</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -3292,7 +3288,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3321,7 +3317,7 @@
         <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>97</v>
@@ -3374,7 +3370,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3392,7 +3388,7 @@
         <v>39</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -3400,11 +3396,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3426,10 +3422,10 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>97</v>
@@ -3484,7 +3480,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3510,7 +3506,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3536,10 +3532,10 @@
         <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3569,11 +3565,11 @@
         <v>134</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3590,7 +3586,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3616,7 +3612,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3639,16 +3635,16 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3677,7 +3673,7 @@
         <v>134</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>39</v>
@@ -3698,7 +3694,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3724,7 +3720,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3747,17 +3743,17 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3806,7 +3802,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3827,12 +3823,12 @@
         <v>39</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3855,16 +3851,16 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3914,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3935,12 +3931,12 @@
         <v>39</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3963,16 +3959,16 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4022,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -4048,7 +4044,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4071,16 +4067,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4130,7 +4126,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4151,12 +4147,12 @@
         <v>39</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4179,17 +4175,17 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4238,7 +4234,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4256,15 +4252,15 @@
         <v>39</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4287,19 +4283,19 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
@@ -4348,7 +4344,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4363,10 +4359,10 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4400,16 +4396,16 @@
         <v>124</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
@@ -4437,7 +4433,7 @@
         <v>134</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>159</v>
@@ -4458,7 +4454,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4484,7 +4480,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4507,19 +4503,19 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>39</v>
@@ -4568,7 +4564,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
